--- a/DataConfig/Datas/system.xlsx
+++ b/DataConfig/Datas/system.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30885" windowHeight="17655" activeTab="1"/>
+    <workbookView windowWidth="25605" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="天气组" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>夏季</t>
+  </si>
+  <si>
+    <t>秋季</t>
+  </si>
+  <si>
+    <t>冬季</t>
   </si>
   <si>
     <r>
@@ -316,7 +322,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +362,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,7 +756,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,16 +780,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -786,91 +804,88 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -908,6 +923,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1227,10 +1248,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1250,437 +1271,905 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="10"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15">
         <v>10001</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>8000</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>2000</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="15">
-        <v>0</v>
-      </c>
-      <c r="J4" s="15" t="s">
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="15">
-        <v>0</v>
-      </c>
-      <c r="L4" s="15" t="s">
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15">
         <v>10002</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>7000</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>3000</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15" t="s">
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15" t="s">
+      <c r="K5" s="14">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15">
         <v>10003</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>6000</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>4000</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15" t="s">
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15" t="s">
+      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15">
         <v>10004</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>5000</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>5000</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15" t="s">
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-      <c r="L7" s="15" t="s">
+      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17">
         <v>20001</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>8000</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>2000</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="17">
-        <v>0</v>
-      </c>
-      <c r="J8" s="17" t="s">
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="16">
         <v>1000</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17">
         <v>20002</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>7000</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>3000</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="17">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17" t="s">
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="16">
         <v>2000</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17">
         <v>20003</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>6000</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>4000</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="17">
-        <v>0</v>
-      </c>
-      <c r="J10" s="17" t="s">
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="16">
         <v>3000</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17">
         <v>20004</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>4000</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>5000</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="17">
-        <v>0</v>
-      </c>
-      <c r="J11" s="17" t="s">
+      <c r="I11" s="16">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="16">
         <v>4000</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17">
         <v>20005</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>1000</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>5000</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="17">
-        <v>0</v>
-      </c>
-      <c r="J12" s="17" t="s">
+      <c r="I12" s="16">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="16">
         <v>7000</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="17">
-        <v>0</v>
+      <c r="M12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18">
+        <v>30001</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="18">
+        <v>8000</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="18">
+        <v>0</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18">
+        <v>30002</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="18">
+        <v>8000</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="18">
+        <v>2000</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18">
+        <v>30003</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="18">
+        <v>7000</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="18">
+        <v>3000</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18">
+        <v>30004</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="18">
+        <v>6000</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="18">
+        <v>4000</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="18">
+        <v>0</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18">
+        <v>30005</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="18">
+        <v>5000</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="18">
+        <v>3000</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="18">
+        <v>2000</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="18">
+        <v>0</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18">
+        <v>30006</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="18">
+        <v>2000</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="18">
+        <v>7000</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="18">
+        <v>2000</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19">
+        <v>40001</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="19">
+        <v>3000</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="19">
+        <v>2000</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="19">
+        <v>3000</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="19">
+        <v>1000</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19">
+        <v>40002</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="19">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="19">
+        <v>2000</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="19">
+        <v>4000</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="19">
+        <v>0</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19">
+        <v>40003</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="19">
+        <v>2000</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="19">
+        <v>4000</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="19">
+        <v>0</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19">
+        <v>40004</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="19">
+        <v>5000</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="19">
+        <v>0</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19">
+        <v>40005</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="19">
+        <v>0</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="19">
+        <v>6000</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="19">
+        <v>0</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19">
+        <v>40006</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="19">
+        <v>0</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="19">
+        <v>0</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="19">
+        <v>7000</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="19">
+        <v>0</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="19">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -1699,8 +2188,8 @@
   <sheetPr/>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1714,16 +2203,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1745,24 +2234,24 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="3">
@@ -1776,7 +2265,7 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="3">
@@ -1790,7 +2279,7 @@
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="3">
@@ -1804,7 +2293,7 @@
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="3">
@@ -1818,7 +2307,7 @@
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="3">
@@ -1832,7 +2321,7 @@
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="3">
@@ -1846,7 +2335,7 @@
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="3">
@@ -1860,7 +2349,7 @@
       <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="3">
@@ -1874,7 +2363,7 @@
       <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="3">
@@ -1888,7 +2377,7 @@
       <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="3">
@@ -1902,7 +2391,7 @@
       <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="3">
@@ -1916,7 +2405,7 @@
       <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="3">
@@ -1930,7 +2419,7 @@
       <c r="B16" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="3">
@@ -1944,7 +2433,7 @@
       <c r="B17" s="3">
         <v>14</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="3">
@@ -1958,7 +2447,7 @@
       <c r="B18" s="3">
         <v>15</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="3">
@@ -1972,7 +2461,7 @@
       <c r="B19" s="3">
         <v>16</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="3">
@@ -1986,7 +2475,7 @@
       <c r="B20" s="3">
         <v>17</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="3">
@@ -2000,7 +2489,7 @@
       <c r="B21" s="3">
         <v>18</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="3">
@@ -2014,7 +2503,7 @@
       <c r="B22" s="3">
         <v>19</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="3">
@@ -2028,7 +2517,7 @@
       <c r="B23" s="3">
         <v>20</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
@@ -2042,7 +2531,7 @@
       <c r="B24" s="3">
         <v>21</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
@@ -2056,7 +2545,7 @@
       <c r="B25" s="3">
         <v>22</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="3">
@@ -2070,7 +2559,7 @@
       <c r="B26" s="3">
         <v>23</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="3">
@@ -2084,7 +2573,7 @@
       <c r="B27" s="3">
         <v>24</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="3">
@@ -2098,7 +2587,7 @@
       <c r="B28" s="3">
         <v>25</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="3">
@@ -2112,7 +2601,7 @@
       <c r="B29" s="3">
         <v>26</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="3">
@@ -2126,7 +2615,7 @@
       <c r="B30" s="3">
         <v>27</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="3">
@@ -2140,7 +2629,7 @@
       <c r="B31" s="3">
         <v>28</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="3">
@@ -2154,7 +2643,7 @@
       <c r="B32" s="3">
         <v>29</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="3">
@@ -2168,7 +2657,7 @@
       <c r="B33" s="3">
         <v>30</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="3">
@@ -2179,72 +2668,72 @@
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>31</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>1</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>20001</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>32</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>2</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>20001</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>33</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>3</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>20001</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>34</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>4</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>20001</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>35</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>5</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <v>20001</v>
       </c>
     </row>

--- a/DataConfig/Datas/system.xlsx
+++ b/DataConfig/Datas/system.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25605" windowHeight="10455"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="天气组" sheetId="1" r:id="rId1"/>
     <sheet name="天气日程表" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -355,6 +356,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -362,18 +375,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,7 +881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,25 +893,31 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -919,22 +926,19 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1250,8 +1254,8 @@
   <sheetPr/>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1271,904 +1275,904 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17">
         <v>10001</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="16">
         <v>8000</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="16">
         <v>2000</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="14">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14" t="s">
+      <c r="I4" s="16">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="14">
-        <v>0</v>
-      </c>
-      <c r="L4" s="14" t="s">
+      <c r="K4" s="16">
+        <v>0</v>
+      </c>
+      <c r="L4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
         <v>10002</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="16">
         <v>7000</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="16">
         <v>3000</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="14">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14" t="s">
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="14">
-        <v>0</v>
-      </c>
-      <c r="L5" s="14" t="s">
+      <c r="K5" s="16">
+        <v>0</v>
+      </c>
+      <c r="L5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17">
         <v>10003</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="16">
         <v>6000</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="16">
         <v>4000</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="14">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="14">
-        <v>0</v>
-      </c>
-      <c r="L6" s="14" t="s">
+      <c r="K6" s="16">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17">
         <v>10004</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="16">
         <v>5000</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="16">
         <v>5000</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14" t="s">
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="14">
-        <v>0</v>
-      </c>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19">
         <v>20001</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="18">
         <v>8000</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="18">
         <v>2000</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="16">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16" t="s">
+      <c r="I8" s="18">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="18">
         <v>1000</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19">
         <v>20002</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="18">
         <v>7000</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="18">
         <v>3000</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="16">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16" t="s">
+      <c r="I9" s="18">
+        <v>0</v>
+      </c>
+      <c r="J9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="18">
         <v>2000</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19">
         <v>20003</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="18">
         <v>6000</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="18">
         <v>4000</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="16">
-        <v>0</v>
-      </c>
-      <c r="J10" s="16" t="s">
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="J10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="18">
         <v>3000</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19">
         <v>20004</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="18">
         <v>4000</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="18">
         <v>5000</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="16">
-        <v>0</v>
-      </c>
-      <c r="J11" s="16" t="s">
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
+      <c r="J11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="18">
         <v>4000</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19">
         <v>20005</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="18">
         <v>1000</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="18">
         <v>5000</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="16">
-        <v>0</v>
-      </c>
-      <c r="J12" s="16" t="s">
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="18">
         <v>7000</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20">
         <v>30001</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="20">
         <v>8000</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="18">
-        <v>0</v>
-      </c>
-      <c r="H13" s="18" t="s">
+      <c r="G13" s="20">
+        <v>0</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="18">
-        <v>0</v>
-      </c>
-      <c r="J13" s="18" t="s">
+      <c r="I13" s="20">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="18">
-        <v>0</v>
-      </c>
-      <c r="L13" s="18" t="s">
+      <c r="K13" s="20">
+        <v>0</v>
+      </c>
+      <c r="L13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20">
         <v>30002</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="C14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="20">
         <v>8000</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="20">
         <v>2000</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="18">
-        <v>0</v>
-      </c>
-      <c r="J14" s="18" t="s">
+      <c r="I14" s="20">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="20">
         <v>1000</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20">
         <v>30003</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="20">
         <v>7000</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="20">
         <v>3000</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="18">
-        <v>0</v>
-      </c>
-      <c r="J15" s="18" t="s">
+      <c r="I15" s="20">
+        <v>0</v>
+      </c>
+      <c r="J15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="20">
         <v>1000</v>
       </c>
-      <c r="L15" s="18" t="s">
+      <c r="L15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20">
         <v>30004</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="20">
         <v>6000</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="20">
         <v>4000</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="20">
         <v>1000</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="18">
-        <v>0</v>
-      </c>
-      <c r="L16" s="18" t="s">
+      <c r="K16" s="20">
+        <v>0</v>
+      </c>
+      <c r="L16" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20">
         <v>30005</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="18" t="s">
+      <c r="C17" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="20">
         <v>5000</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="20">
         <v>3000</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="20">
         <v>2000</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="18">
-        <v>0</v>
-      </c>
-      <c r="L17" s="18" t="s">
+      <c r="K17" s="20">
+        <v>0</v>
+      </c>
+      <c r="L17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20">
         <v>30006</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="20">
         <v>2000</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="20">
         <v>7000</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="20">
         <v>2000</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="18">
-        <v>0</v>
-      </c>
-      <c r="L18" s="18" t="s">
+      <c r="K18" s="20">
+        <v>0</v>
+      </c>
+      <c r="L18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6">
         <v>40001</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="19" t="s">
+      <c r="C19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="6">
         <v>3000</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="6">
         <v>2000</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="6">
         <v>3000</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="6">
         <v>1000</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6">
         <v>40002</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="19" t="s">
+      <c r="C20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="6">
         <v>3000</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="6">
         <v>2000</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="6">
         <v>4000</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="19">
-        <v>0</v>
-      </c>
-      <c r="L20" s="19" t="s">
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6">
         <v>40003</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="19" t="s">
+      <c r="C21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="6">
         <v>2000</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="6">
         <v>1000</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="6">
         <v>4000</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="19">
-        <v>0</v>
-      </c>
-      <c r="L21" s="19" t="s">
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M21" s="6">
         <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6">
         <v>40004</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="19" t="s">
+      <c r="C22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="19">
-        <v>0</v>
-      </c>
-      <c r="F22" s="19" t="s">
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="6">
         <v>1000</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="6">
         <v>5000</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="19">
-        <v>0</v>
-      </c>
-      <c r="L22" s="19" t="s">
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M22" s="6">
         <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6">
         <v>40005</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="19" t="s">
+      <c r="C23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="19">
-        <v>0</v>
-      </c>
-      <c r="F23" s="19" t="s">
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="19">
-        <v>0</v>
-      </c>
-      <c r="H23" s="19" t="s">
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="6">
         <v>6000</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="19">
-        <v>0</v>
-      </c>
-      <c r="L23" s="19" t="s">
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="19">
+      <c r="M23" s="6">
         <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6">
         <v>40006</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="19" t="s">
+      <c r="C24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="19">
-        <v>0</v>
-      </c>
-      <c r="F24" s="19" t="s">
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="19">
-        <v>0</v>
-      </c>
-      <c r="H24" s="19" t="s">
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="6">
         <v>7000</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="19">
-        <v>0</v>
-      </c>
-      <c r="L24" s="19" t="s">
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="19">
+      <c r="M24" s="6">
         <v>2000</v>
       </c>
     </row>
@@ -2186,10 +2190,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2737,8 +2741,1214 @@
         <v>20001</v>
       </c>
     </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="4">
+        <v>36</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="4">
+        <v>6</v>
+      </c>
+      <c r="E39" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="4">
+        <v>37</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="4">
+        <v>7</v>
+      </c>
+      <c r="E40" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="4">
+        <v>38</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="4">
+        <v>8</v>
+      </c>
+      <c r="E41" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="4">
+        <v>39</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="4">
+        <v>9</v>
+      </c>
+      <c r="E42" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="4">
+        <v>40</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="4">
+        <v>10</v>
+      </c>
+      <c r="E43" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="4">
+        <v>41</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="4">
+        <v>11</v>
+      </c>
+      <c r="E44" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="4">
+        <v>42</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="4">
+        <v>12</v>
+      </c>
+      <c r="E45" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="4">
+        <v>43</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="4">
+        <v>13</v>
+      </c>
+      <c r="E46" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="4">
+        <v>44</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="4">
+        <v>14</v>
+      </c>
+      <c r="E47" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="4">
+        <v>45</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="4">
+        <v>15</v>
+      </c>
+      <c r="E48" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="4">
+        <v>46</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="4">
+        <v>16</v>
+      </c>
+      <c r="E49" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="4">
+        <v>47</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="4">
+        <v>17</v>
+      </c>
+      <c r="E50" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="4">
+        <v>48</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="4">
+        <v>18</v>
+      </c>
+      <c r="E51" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="4">
+        <v>49</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="4">
+        <v>19</v>
+      </c>
+      <c r="E52" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="4">
+        <v>50</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="4">
+        <v>20</v>
+      </c>
+      <c r="E53" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="4">
+        <v>51</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="4">
+        <v>21</v>
+      </c>
+      <c r="E54" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="4">
+        <v>52</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="4">
+        <v>22</v>
+      </c>
+      <c r="E55" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="4">
+        <v>53</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="4">
+        <v>23</v>
+      </c>
+      <c r="E56" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="4">
+        <v>54</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="4">
+        <v>24</v>
+      </c>
+      <c r="E57" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="4">
+        <v>55</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="4">
+        <v>25</v>
+      </c>
+      <c r="E58" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="4">
+        <v>56</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="4">
+        <v>26</v>
+      </c>
+      <c r="E59" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="4">
+        <v>57</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="4">
+        <v>27</v>
+      </c>
+      <c r="E60" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="4">
+        <v>58</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="4">
+        <v>28</v>
+      </c>
+      <c r="E61" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="4">
+        <v>59</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="4">
+        <v>29</v>
+      </c>
+      <c r="E62" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="4">
+        <v>60</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="4">
+        <v>30</v>
+      </c>
+      <c r="E63" s="4">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="5">
+        <v>61</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="5">
+        <v>62</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="5">
+        <v>2</v>
+      </c>
+      <c r="E65" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="5">
+        <v>63</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="5">
+        <v>3</v>
+      </c>
+      <c r="E66" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="5">
+        <v>64</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="5">
+        <v>4</v>
+      </c>
+      <c r="E67" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="5">
+        <v>65</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="5">
+        <v>5</v>
+      </c>
+      <c r="E68" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="5">
+        <v>66</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="5">
+        <v>6</v>
+      </c>
+      <c r="E69" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="5">
+        <v>67</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="5">
+        <v>7</v>
+      </c>
+      <c r="E70" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="5">
+        <v>68</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="5">
+        <v>8</v>
+      </c>
+      <c r="E71" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="5">
+        <v>69</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="5">
+        <v>9</v>
+      </c>
+      <c r="E72" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="5">
+        <v>70</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="5">
+        <v>10</v>
+      </c>
+      <c r="E73" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="5">
+        <v>71</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="5">
+        <v>11</v>
+      </c>
+      <c r="E74" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="5">
+        <v>72</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="5">
+        <v>12</v>
+      </c>
+      <c r="E75" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="5">
+        <v>73</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="5">
+        <v>13</v>
+      </c>
+      <c r="E76" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" s="5">
+        <v>74</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="5">
+        <v>14</v>
+      </c>
+      <c r="E77" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" s="5">
+        <v>75</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="5">
+        <v>15</v>
+      </c>
+      <c r="E78" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" s="5">
+        <v>76</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="5">
+        <v>16</v>
+      </c>
+      <c r="E79" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" s="5">
+        <v>77</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="5">
+        <v>17</v>
+      </c>
+      <c r="E80" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="5">
+        <v>78</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="5">
+        <v>18</v>
+      </c>
+      <c r="E81" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="5">
+        <v>79</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="5">
+        <v>19</v>
+      </c>
+      <c r="E82" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="5">
+        <v>80</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="5">
+        <v>20</v>
+      </c>
+      <c r="E83" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="5">
+        <v>81</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="5">
+        <v>21</v>
+      </c>
+      <c r="E84" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="5">
+        <v>82</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="5">
+        <v>22</v>
+      </c>
+      <c r="E85" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="5">
+        <v>83</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="5">
+        <v>23</v>
+      </c>
+      <c r="E86" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="5">
+        <v>84</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" s="5">
+        <v>24</v>
+      </c>
+      <c r="E87" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="5">
+        <v>85</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="5">
+        <v>25</v>
+      </c>
+      <c r="E88" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="5">
+        <v>86</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="5">
+        <v>26</v>
+      </c>
+      <c r="E89" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="5">
+        <v>87</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="5">
+        <v>27</v>
+      </c>
+      <c r="E90" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="5">
+        <v>88</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="5">
+        <v>28</v>
+      </c>
+      <c r="E91" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="5">
+        <v>89</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="5">
+        <v>29</v>
+      </c>
+      <c r="E92" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="5">
+        <v>90</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="5">
+        <v>30</v>
+      </c>
+      <c r="E93" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="6">
+        <v>91</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="6">
+        <v>1</v>
+      </c>
+      <c r="E94" s="6">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" s="6">
+        <v>92</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" s="6">
+        <v>2</v>
+      </c>
+      <c r="E95" s="6">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" s="6">
+        <v>93</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" s="6">
+        <v>3</v>
+      </c>
+      <c r="E96" s="6">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="6">
+        <v>94</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" s="6">
+        <v>4</v>
+      </c>
+      <c r="E97" s="6">
+        <v>40002</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="6">
+        <v>95</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="6">
+        <v>5</v>
+      </c>
+      <c r="E98" s="6">
+        <v>40002</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="6">
+        <v>96</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" s="6">
+        <v>6</v>
+      </c>
+      <c r="E99" s="6">
+        <v>40002</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="6">
+        <v>97</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" s="6">
+        <v>7</v>
+      </c>
+      <c r="E100" s="6">
+        <v>40002</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" s="6">
+        <v>98</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" s="6">
+        <v>8</v>
+      </c>
+      <c r="E101" s="6">
+        <v>40002</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" s="6">
+        <v>99</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" s="6">
+        <v>9</v>
+      </c>
+      <c r="E102" s="6">
+        <v>40003</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" s="6">
+        <v>100</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" s="6">
+        <v>10</v>
+      </c>
+      <c r="E103" s="6">
+        <v>40003</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" s="6">
+        <v>101</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" s="6">
+        <v>11</v>
+      </c>
+      <c r="E104" s="6">
+        <v>40003</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" s="6">
+        <v>102</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" s="6">
+        <v>12</v>
+      </c>
+      <c r="E105" s="6">
+        <v>40003</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="6">
+        <v>103</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106" s="6">
+        <v>13</v>
+      </c>
+      <c r="E106" s="6">
+        <v>40004</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" s="6">
+        <v>104</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="6">
+        <v>14</v>
+      </c>
+      <c r="E107" s="6">
+        <v>40004</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" s="6">
+        <v>105</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" s="6">
+        <v>15</v>
+      </c>
+      <c r="E108" s="6">
+        <v>40004</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" s="6">
+        <v>106</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" s="6">
+        <v>16</v>
+      </c>
+      <c r="E109" s="6">
+        <v>40005</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" s="6">
+        <v>107</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" s="6">
+        <v>17</v>
+      </c>
+      <c r="E110" s="6">
+        <v>40005</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" s="6">
+        <v>108</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" s="6">
+        <v>18</v>
+      </c>
+      <c r="E111" s="6">
+        <v>40005</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" s="6">
+        <v>109</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" s="6">
+        <v>19</v>
+      </c>
+      <c r="E112" s="6">
+        <v>40005</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" s="6">
+        <v>110</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" s="6">
+        <v>20</v>
+      </c>
+      <c r="E113" s="6">
+        <v>40005</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" s="6">
+        <v>111</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114" s="6">
+        <v>21</v>
+      </c>
+      <c r="E114" s="6">
+        <v>40006</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" s="6">
+        <v>112</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" s="6">
+        <v>22</v>
+      </c>
+      <c r="E115" s="6">
+        <v>40006</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" s="6">
+        <v>113</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" s="6">
+        <v>23</v>
+      </c>
+      <c r="E116" s="6">
+        <v>40006</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" s="6">
+        <v>114</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" s="6">
+        <v>24</v>
+      </c>
+      <c r="E117" s="6">
+        <v>40006</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118" s="6">
+        <v>115</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118" s="6">
+        <v>25</v>
+      </c>
+      <c r="E118" s="6">
+        <v>40006</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" s="6">
+        <v>116</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" s="6">
+        <v>26</v>
+      </c>
+      <c r="E119" s="6">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" s="6">
+        <v>117</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" s="6">
+        <v>27</v>
+      </c>
+      <c r="E120" s="6">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" s="6">
+        <v>118</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121" s="6">
+        <v>28</v>
+      </c>
+      <c r="E121" s="6">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" s="6">
+        <v>119</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D122" s="6">
+        <v>29</v>
+      </c>
+      <c r="E122" s="6">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" s="6">
+        <v>120</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" s="6">
+        <v>30</v>
+      </c>
+      <c r="E123" s="6">
+        <v>40001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/DataConfig/Datas/system.xlsx
+++ b/DataConfig/Datas/system.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="21840" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="天气组" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <t>季节</t>
   </si>
   <si>
-    <t>*weather</t>
+    <t>weather</t>
   </si>
   <si>
     <t>##type</t>
@@ -39,7 +39,7 @@
     <t>common.Season</t>
   </si>
   <si>
-    <t>(list),common.weather_group</t>
+    <t>common.weather_group</t>
   </si>
   <si>
     <t>WeatherA</t>
@@ -1254,8 +1254,8 @@
   <sheetPr/>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2192,8 +2192,8 @@
   <sheetPr/>
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/DataConfig/Datas/system.xlsx
+++ b/DataConfig/Datas/system.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21840" windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="天气组" sheetId="1" r:id="rId1"/>
     <sheet name="天气日程表" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1254,8 +1253,8 @@
   <sheetPr/>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2192,8 +2191,8 @@
   <sheetPr/>
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3935,20 +3934,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/DataConfig/Datas/system.xlsx
+++ b/DataConfig/Datas/system.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowHeight="17655" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="天气组" sheetId="1" r:id="rId1"/>
     <sheet name="天气日程表" sheetId="2" r:id="rId2"/>
+    <sheet name="剧情测试场景" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -136,6 +137,33 @@
   </si>
   <si>
     <t>天气组</t>
+  </si>
+  <si>
+    <t>CharacterId</t>
+  </si>
+  <si>
+    <t>SeatIndex</t>
+  </si>
+  <si>
+    <t>FriendVal</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>common.Weather</t>
+  </si>
+  <si>
+    <t>角色id</t>
+  </si>
+  <si>
+    <t>座位号</t>
+  </si>
+  <si>
+    <t>好感度</t>
+  </si>
+  <si>
+    <t>天气</t>
   </si>
 </sst>
 </file>
@@ -2191,8 +2219,8 @@
   <sheetPr/>
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3934,4 +3962,83 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="5" width="15.7" customWidth="1"/>
+    <col min="6" max="6" width="15.9416666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/DataConfig/Datas/system.xlsx
+++ b/DataConfig/Datas/system.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="2"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="天气组" sheetId="1" r:id="rId1"/>
     <sheet name="天气日程表" sheetId="2" r:id="rId2"/>
     <sheet name="剧情测试场景" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -25,6 +38,12 @@
   </si>
   <si>
     <t>季节</t>
+  </si>
+  <si>
+    <t>temp_start</t>
+  </si>
+  <si>
+    <t>temp_end</t>
   </si>
   <si>
     <t>weather</t>
@@ -169,7 +188,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -618,7 +637,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -627,9 +648,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -908,7 +927,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -926,8 +945,12 @@
     <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -937,7 +960,9 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -947,26 +972,29 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1279,10 +1307,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1290,18 +1318,20 @@
     <col min="1" max="1" width="11.975" customWidth="1"/>
     <col min="2" max="2" width="11.2833333333333" customWidth="1"/>
     <col min="3" max="3" width="13.6166666666667" customWidth="1"/>
-    <col min="4" max="4" width="10.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="14.7" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="15.8583333333333" customWidth="1"/>
-    <col min="8" max="8" width="10.95" customWidth="1"/>
-    <col min="9" max="9" width="14.8" customWidth="1"/>
-    <col min="11" max="11" width="15.2833333333333" customWidth="1"/>
-    <col min="12" max="12" width="12.4916666666667" customWidth="1"/>
-    <col min="13" max="13" width="15.9416666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.0333333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.6916666666667" customWidth="1"/>
+    <col min="6" max="6" width="10.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.7" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="15.8583333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.95" customWidth="1"/>
+    <col min="11" max="11" width="14.8" customWidth="1"/>
+    <col min="13" max="13" width="15.2833333333333" customWidth="1"/>
+    <col min="14" max="14" width="12.4916666666667" customWidth="1"/>
+    <col min="15" max="15" width="12.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1314,899 +1344,1039 @@
       <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="10"/>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11"/>
       <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
       <c r="M1" s="11"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="11"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
+      <c r="E2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="16"/>
       <c r="B4" s="17">
         <v>10001</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D4" s="16">
+        <v>10</v>
       </c>
       <c r="E4" s="16">
+        <v>15</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="16">
         <v>8000</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="16">
+      <c r="H4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="16">
         <v>2000</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="16">
-        <v>0</v>
-      </c>
       <c r="J4" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="16">
         <v>0</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="16"/>
       <c r="B5" s="17">
         <v>10002</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D5" s="16">
+        <v>10</v>
       </c>
       <c r="E5" s="16">
+        <v>15</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="16">
         <v>7000</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="16">
+      <c r="H5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="16">
         <v>3000</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="16">
-        <v>0</v>
-      </c>
       <c r="J5" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" s="16">
         <v>0</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="16"/>
       <c r="B6" s="17">
         <v>10003</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D6" s="16">
+        <v>10</v>
       </c>
       <c r="E6" s="16">
+        <v>15</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="16">
         <v>6000</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="16">
+      <c r="H6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="16">
         <v>4000</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="16">
-        <v>0</v>
-      </c>
       <c r="J6" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" s="16">
         <v>0</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="16"/>
       <c r="B7" s="17">
         <v>10004</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="16">
+        <v>10</v>
       </c>
       <c r="E7" s="16">
-        <v>5000</v>
+        <v>15</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="16">
         <v>5000</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" s="16">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7" s="16">
         <v>0</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M7" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="18"/>
       <c r="B8" s="19">
         <v>20001</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="18">
+        <v>20</v>
+      </c>
+      <c r="E8" s="18">
+        <v>30</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="18">
+        <v>8000</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="18">
+        <v>2000</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
+      <c r="L8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="18">
-        <v>8000</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="18">
-        <v>2000</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="18">
-        <v>0</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="18">
+      <c r="M8" s="18">
         <v>1000</v>
       </c>
-      <c r="L8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="18"/>
       <c r="B9" s="19">
         <v>20002</v>
       </c>
       <c r="C9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="18">
+        <v>20</v>
+      </c>
+      <c r="E9" s="18">
+        <v>30</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="18">
+        <v>7000</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="18">
+        <v>3000</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0</v>
+      </c>
+      <c r="L9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="18">
-        <v>7000</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="18">
-        <v>3000</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="18">
-        <v>0</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="18">
+      <c r="M9" s="18">
         <v>2000</v>
       </c>
-      <c r="L9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="18"/>
       <c r="B10" s="19">
         <v>20003</v>
       </c>
       <c r="C10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="18">
+        <v>20</v>
+      </c>
+      <c r="E10" s="18">
+        <v>30</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="18">
+        <v>6000</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="18">
+        <v>4000</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+      <c r="L10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="18">
-        <v>6000</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="18">
-        <v>4000</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="18">
-        <v>0</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="18">
+      <c r="M10" s="18">
         <v>3000</v>
       </c>
-      <c r="L10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="18"/>
       <c r="B11" s="19">
         <v>20004</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="18">
+        <v>20</v>
+      </c>
+      <c r="E11" s="18">
+        <v>30</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="18">
+        <v>4000</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="18">
+        <v>5000</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0</v>
+      </c>
+      <c r="L11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="18">
+      <c r="M11" s="18">
         <v>4000</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="18">
-        <v>5000</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="18">
-        <v>0</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="18">
-        <v>4000</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="18"/>
       <c r="B12" s="19">
         <v>20005</v>
       </c>
       <c r="C12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="18">
+        <v>20</v>
+      </c>
+      <c r="E12" s="18">
+        <v>30</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="18">
+        <v>5000</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0</v>
+      </c>
+      <c r="L12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="18">
-        <v>1000</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="18">
-        <v>5000</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="18">
-        <v>0</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="18">
+      <c r="M12" s="18">
         <v>7000</v>
       </c>
-      <c r="L12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="20"/>
       <c r="B13" s="20">
         <v>30001</v>
       </c>
       <c r="C13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="20">
+        <v>15</v>
+      </c>
+      <c r="E13" s="20">
+        <v>20</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="20">
+        <v>8000</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="20">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="20">
+        <v>0</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="20">
+        <v>0</v>
+      </c>
+      <c r="N13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="20">
-        <v>8000</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="20">
-        <v>0</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="20">
-        <v>0</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="20">
-        <v>0</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="O13" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="20"/>
       <c r="B14" s="20">
         <v>30002</v>
       </c>
       <c r="C14" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="20">
+        <v>15</v>
+      </c>
+      <c r="E14" s="20">
+        <v>20</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="20">
+        <v>8000</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="20">
+        <v>2000</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="20">
+        <v>0</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="20">
+        <v>1000</v>
+      </c>
+      <c r="N14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="20">
-        <v>8000</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="20">
-        <v>2000</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="20">
-        <v>0</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="20">
-        <v>1000</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="O14" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="20"/>
       <c r="B15" s="20">
         <v>30003</v>
       </c>
       <c r="C15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="20">
+        <v>15</v>
+      </c>
+      <c r="E15" s="20">
+        <v>20</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="20">
+        <v>7000</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="20">
+        <v>3000</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="20">
+        <v>0</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="20">
+        <v>1000</v>
+      </c>
+      <c r="N15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="20">
-        <v>7000</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="20">
-        <v>3000</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="20">
-        <v>0</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="20">
-        <v>1000</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="O15" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="20"/>
       <c r="B16" s="20">
         <v>30004</v>
       </c>
       <c r="C16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="20">
+        <v>15</v>
+      </c>
+      <c r="E16" s="20">
+        <v>20</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="20">
+        <v>6000</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="20">
+        <v>4000</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="20">
+        <v>1000</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="20">
+        <v>0</v>
+      </c>
+      <c r="N16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="20">
-        <v>6000</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="20">
-        <v>1000</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="20">
-        <v>0</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="O16" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="20"/>
       <c r="B17" s="20">
         <v>30005</v>
       </c>
       <c r="C17" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="20">
+        <v>15</v>
+      </c>
+      <c r="E17" s="20">
+        <v>20</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="20">
+        <v>5000</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="20">
+        <v>3000</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="20">
+        <v>2000</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="20">
+        <v>0</v>
+      </c>
+      <c r="N17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="20">
-        <v>5000</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="20">
-        <v>3000</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="20">
-        <v>2000</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="20">
-        <v>0</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="O17" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="20"/>
       <c r="B18" s="20">
         <v>30006</v>
       </c>
       <c r="C18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="20">
+        <v>15</v>
+      </c>
+      <c r="E18" s="20">
+        <v>20</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="20">
+        <v>2000</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="20">
+        <v>7000</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="20">
+        <v>2000</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="20">
+        <v>0</v>
+      </c>
+      <c r="N18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="20">
+      <c r="O18" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21">
+        <v>40001</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0</v>
+      </c>
+      <c r="E19" s="21">
+        <v>10</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="21">
+        <v>3000</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="21">
         <v>2000</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="20">
+      <c r="J19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="21">
+        <v>3000</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="21">
+        <v>1000</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21">
+        <v>40002</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0</v>
+      </c>
+      <c r="E20" s="21">
+        <v>10</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="21">
+        <v>3000</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="21">
+        <v>2000</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="21">
+        <v>4000</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="21">
+        <v>0</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21">
+        <v>40003</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21">
+        <v>10</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="21">
+        <v>2000</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="21">
+        <v>4000</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21">
+        <v>40004</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="21">
+        <v>0</v>
+      </c>
+      <c r="E22" s="21">
+        <v>10</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="21">
+        <v>0</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="21">
+        <v>5000</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="21">
+        <v>0</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21">
+        <v>40005</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0</v>
+      </c>
+      <c r="E23" s="21">
+        <v>10</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="21">
+        <v>0</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="21">
+        <v>0</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="21">
+        <v>6000</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="21">
+        <v>0</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21">
+        <v>40006</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="21">
+        <v>0</v>
+      </c>
+      <c r="E24" s="21">
+        <v>10</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="21">
+        <v>0</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="21">
+        <v>0</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="21">
         <v>7000</v>
       </c>
-      <c r="H18" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="20">
-        <v>2000</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="20">
-        <v>0</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6">
-        <v>40001</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="6">
-        <v>3000</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="6">
-        <v>2000</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="6">
-        <v>3000</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="6">
-        <v>1000</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6">
-        <v>40002</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="6">
-        <v>3000</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="6">
-        <v>2000</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="6">
-        <v>4000</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="6">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6">
-        <v>40003</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="6">
-        <v>1000</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="6">
-        <v>4000</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="6">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6">
-        <v>40004</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="6">
-        <v>1000</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="6">
-        <v>5000</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="6">
-        <v>0</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6">
-        <v>40005</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="6">
-        <v>6000</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="6">
-        <v>0</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6">
-        <v>40006</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="6">
-        <v>7000</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="6">
-        <v>0</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="6">
+      <c r="L24" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="21">
+        <v>0</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="21">
         <v>2000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="F2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2234,48 +2404,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -2283,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -2297,7 +2467,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
@@ -2311,7 +2481,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
@@ -2325,7 +2495,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3">
         <v>4</v>
@@ -2339,7 +2509,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3">
         <v>5</v>
@@ -2353,7 +2523,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3">
         <v>6</v>
@@ -2367,7 +2537,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3">
         <v>7</v>
@@ -2381,7 +2551,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3">
         <v>8</v>
@@ -2395,7 +2565,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3">
         <v>9</v>
@@ -2409,7 +2579,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3">
         <v>10</v>
@@ -2423,7 +2593,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" s="3">
         <v>11</v>
@@ -2437,7 +2607,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" s="3">
         <v>12</v>
@@ -2451,7 +2621,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3">
         <v>13</v>
@@ -2465,7 +2635,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" s="3">
         <v>14</v>
@@ -2479,7 +2649,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D18" s="3">
         <v>15</v>
@@ -2493,7 +2663,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D19" s="3">
         <v>16</v>
@@ -2507,7 +2677,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20" s="3">
         <v>17</v>
@@ -2521,7 +2691,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3">
         <v>18</v>
@@ -2535,7 +2705,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3">
         <v>19</v>
@@ -2549,7 +2719,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D23" s="3">
         <v>20</v>
@@ -2563,7 +2733,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D24" s="3">
         <v>21</v>
@@ -2577,7 +2747,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D25" s="3">
         <v>22</v>
@@ -2591,7 +2761,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D26" s="3">
         <v>23</v>
@@ -2605,7 +2775,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D27" s="3">
         <v>24</v>
@@ -2619,7 +2789,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D28" s="3">
         <v>25</v>
@@ -2633,7 +2803,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D29" s="3">
         <v>26</v>
@@ -2647,7 +2817,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D30" s="3">
         <v>27</v>
@@ -2661,7 +2831,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D31" s="3">
         <v>28</v>
@@ -2675,7 +2845,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D32" s="3">
         <v>29</v>
@@ -2689,7 +2859,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D33" s="3">
         <v>30</v>
@@ -2703,7 +2873,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -2717,7 +2887,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D35" s="4">
         <v>2</v>
@@ -2731,7 +2901,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D36" s="4">
         <v>3</v>
@@ -2745,7 +2915,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D37" s="4">
         <v>4</v>
@@ -2759,7 +2929,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D38" s="4">
         <v>5</v>
@@ -2773,7 +2943,7 @@
         <v>36</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D39" s="4">
         <v>6</v>
@@ -2787,7 +2957,7 @@
         <v>37</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D40" s="4">
         <v>7</v>
@@ -2801,7 +2971,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D41" s="4">
         <v>8</v>
@@ -2815,7 +2985,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D42" s="4">
         <v>9</v>
@@ -2829,7 +2999,7 @@
         <v>40</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D43" s="4">
         <v>10</v>
@@ -2843,7 +3013,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D44" s="4">
         <v>11</v>
@@ -2857,7 +3027,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D45" s="4">
         <v>12</v>
@@ -2871,7 +3041,7 @@
         <v>43</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D46" s="4">
         <v>13</v>
@@ -2885,7 +3055,7 @@
         <v>44</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D47" s="4">
         <v>14</v>
@@ -2899,7 +3069,7 @@
         <v>45</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D48" s="4">
         <v>15</v>
@@ -2913,7 +3083,7 @@
         <v>46</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D49" s="4">
         <v>16</v>
@@ -2927,7 +3097,7 @@
         <v>47</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D50" s="4">
         <v>17</v>
@@ -2941,7 +3111,7 @@
         <v>48</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D51" s="4">
         <v>18</v>
@@ -2955,7 +3125,7 @@
         <v>49</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D52" s="4">
         <v>19</v>
@@ -2969,7 +3139,7 @@
         <v>50</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D53" s="4">
         <v>20</v>
@@ -2983,7 +3153,7 @@
         <v>51</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D54" s="4">
         <v>21</v>
@@ -2997,7 +3167,7 @@
         <v>52</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D55" s="4">
         <v>22</v>
@@ -3011,7 +3181,7 @@
         <v>53</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D56" s="4">
         <v>23</v>
@@ -3025,7 +3195,7 @@
         <v>54</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D57" s="4">
         <v>24</v>
@@ -3039,7 +3209,7 @@
         <v>55</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D58" s="4">
         <v>25</v>
@@ -3053,7 +3223,7 @@
         <v>56</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D59" s="4">
         <v>26</v>
@@ -3067,7 +3237,7 @@
         <v>57</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D60" s="4">
         <v>27</v>
@@ -3081,7 +3251,7 @@
         <v>58</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D61" s="4">
         <v>28</v>
@@ -3095,7 +3265,7 @@
         <v>59</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D62" s="4">
         <v>29</v>
@@ -3109,7 +3279,7 @@
         <v>60</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D63" s="4">
         <v>30</v>
@@ -3123,7 +3293,7 @@
         <v>61</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D64" s="5">
         <v>1</v>
@@ -3137,7 +3307,7 @@
         <v>62</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D65" s="5">
         <v>2</v>
@@ -3151,7 +3321,7 @@
         <v>63</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D66" s="5">
         <v>3</v>
@@ -3165,7 +3335,7 @@
         <v>64</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D67" s="5">
         <v>4</v>
@@ -3179,7 +3349,7 @@
         <v>65</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D68" s="5">
         <v>5</v>
@@ -3193,7 +3363,7 @@
         <v>66</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D69" s="5">
         <v>6</v>
@@ -3207,7 +3377,7 @@
         <v>67</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D70" s="5">
         <v>7</v>
@@ -3221,7 +3391,7 @@
         <v>68</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D71" s="5">
         <v>8</v>
@@ -3235,7 +3405,7 @@
         <v>69</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D72" s="5">
         <v>9</v>
@@ -3249,7 +3419,7 @@
         <v>70</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D73" s="5">
         <v>10</v>
@@ -3263,7 +3433,7 @@
         <v>71</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D74" s="5">
         <v>11</v>
@@ -3277,7 +3447,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D75" s="5">
         <v>12</v>
@@ -3291,7 +3461,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D76" s="5">
         <v>13</v>
@@ -3305,7 +3475,7 @@
         <v>74</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D77" s="5">
         <v>14</v>
@@ -3319,7 +3489,7 @@
         <v>75</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D78" s="5">
         <v>15</v>
@@ -3333,7 +3503,7 @@
         <v>76</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D79" s="5">
         <v>16</v>
@@ -3347,7 +3517,7 @@
         <v>77</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D80" s="5">
         <v>17</v>
@@ -3361,7 +3531,7 @@
         <v>78</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D81" s="5">
         <v>18</v>
@@ -3375,7 +3545,7 @@
         <v>79</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D82" s="5">
         <v>19</v>
@@ -3389,7 +3559,7 @@
         <v>80</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D83" s="5">
         <v>20</v>
@@ -3403,7 +3573,7 @@
         <v>81</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D84" s="5">
         <v>21</v>
@@ -3417,7 +3587,7 @@
         <v>82</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D85" s="5">
         <v>22</v>
@@ -3431,7 +3601,7 @@
         <v>83</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D86" s="5">
         <v>23</v>
@@ -3445,7 +3615,7 @@
         <v>84</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D87" s="5">
         <v>24</v>
@@ -3459,7 +3629,7 @@
         <v>85</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D88" s="5">
         <v>25</v>
@@ -3473,7 +3643,7 @@
         <v>86</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D89" s="5">
         <v>26</v>
@@ -3487,7 +3657,7 @@
         <v>87</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D90" s="5">
         <v>27</v>
@@ -3501,7 +3671,7 @@
         <v>88</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D91" s="5">
         <v>28</v>
@@ -3515,7 +3685,7 @@
         <v>89</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D92" s="5">
         <v>29</v>
@@ -3529,7 +3699,7 @@
         <v>90</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D93" s="5">
         <v>30</v>
@@ -3543,7 +3713,7 @@
         <v>91</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D94" s="6">
         <v>1</v>
@@ -3557,7 +3727,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D95" s="6">
         <v>2</v>
@@ -3571,7 +3741,7 @@
         <v>93</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D96" s="6">
         <v>3</v>
@@ -3585,7 +3755,7 @@
         <v>94</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D97" s="6">
         <v>4</v>
@@ -3599,7 +3769,7 @@
         <v>95</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D98" s="6">
         <v>5</v>
@@ -3613,7 +3783,7 @@
         <v>96</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D99" s="6">
         <v>6</v>
@@ -3627,7 +3797,7 @@
         <v>97</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D100" s="6">
         <v>7</v>
@@ -3641,7 +3811,7 @@
         <v>98</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D101" s="6">
         <v>8</v>
@@ -3655,7 +3825,7 @@
         <v>99</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D102" s="6">
         <v>9</v>
@@ -3669,7 +3839,7 @@
         <v>100</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D103" s="6">
         <v>10</v>
@@ -3683,7 +3853,7 @@
         <v>101</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D104" s="6">
         <v>11</v>
@@ -3697,7 +3867,7 @@
         <v>102</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D105" s="6">
         <v>12</v>
@@ -3711,7 +3881,7 @@
         <v>103</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D106" s="6">
         <v>13</v>
@@ -3725,7 +3895,7 @@
         <v>104</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D107" s="6">
         <v>14</v>
@@ -3739,7 +3909,7 @@
         <v>105</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D108" s="6">
         <v>15</v>
@@ -3753,7 +3923,7 @@
         <v>106</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D109" s="6">
         <v>16</v>
@@ -3767,7 +3937,7 @@
         <v>107</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D110" s="6">
         <v>17</v>
@@ -3781,7 +3951,7 @@
         <v>108</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D111" s="6">
         <v>18</v>
@@ -3795,7 +3965,7 @@
         <v>109</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D112" s="6">
         <v>19</v>
@@ -3809,7 +3979,7 @@
         <v>110</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D113" s="6">
         <v>20</v>
@@ -3823,7 +3993,7 @@
         <v>111</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D114" s="6">
         <v>21</v>
@@ -3837,7 +4007,7 @@
         <v>112</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D115" s="6">
         <v>22</v>
@@ -3851,7 +4021,7 @@
         <v>113</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D116" s="6">
         <v>23</v>
@@ -3865,7 +4035,7 @@
         <v>114</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D117" s="6">
         <v>24</v>
@@ -3879,7 +4049,7 @@
         <v>115</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D118" s="6">
         <v>25</v>
@@ -3893,7 +4063,7 @@
         <v>116</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D119" s="6">
         <v>26</v>
@@ -3907,7 +4077,7 @@
         <v>117</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D120" s="6">
         <v>27</v>
@@ -3921,7 +4091,7 @@
         <v>118</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D121" s="6">
         <v>28</v>
@@ -3935,7 +4105,7 @@
         <v>119</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D122" s="6">
         <v>29</v>
@@ -3949,7 +4119,7 @@
         <v>120</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D123" s="6">
         <v>30</v>
@@ -3969,8 +4139,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -3984,57 +4154,57 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
